--- a/60_experts/S4350_Advanced_Python_Checklist.xlsx
+++ b/60_experts/S4350_Advanced_Python_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\AspIT_Python\60_experts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.aspit.dk/personal/ulsc/Documents/Uli/Python/AspIT_Python/60_experts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{F4DD83C2-D29A-4561-9E89-12EE7EA523BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EDFC1E96-79CB-4CA9-88B1-A82D54F600A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{33062578-71E9-437E-A430-9C9C11F37834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{AA257D73-5351-48FA-A979-44EE05DA9560}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{AA257D73-5351-48FA-A979-44EE05DA9560}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>2. Avancerede koncepter for avancerede programmører</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Sæt et kryds foran et emne på din udskrift, når du er færdig med det.</t>
+  </si>
+  <si>
+    <t>Decorators (1 - 2)</t>
+  </si>
+  <si>
+    <t>F-string tricks, number representation (0,2 - 0,5)</t>
+  </si>
+  <si>
+    <t>Type hints, variable annotations (0,1 - 0,5)</t>
   </si>
 </sst>
 </file>
@@ -201,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -215,9 +224,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 Tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -290,7 +296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -396,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,17 +552,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AEB3CE-BCD5-4803-BEB5-39E1764B9DB3}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="10" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -565,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="10"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -573,47 +579,47 @@
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -621,17 +627,17 @@
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -639,7 +645,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3"/>
@@ -649,7 +655,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3"/>
@@ -659,7 +665,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="3"/>
@@ -669,7 +675,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3"/>
@@ -679,7 +685,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3"/>
@@ -689,7 +695,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3"/>
@@ -699,7 +705,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3"/>
@@ -709,7 +715,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3"/>
@@ -719,7 +725,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3"/>
@@ -729,7 +735,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3"/>
@@ -738,18 +744,18 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -757,8 +763,8 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="10" t="s">
-        <v>15</v>
+      <c r="C21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -767,8 +773,8 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="10" t="s">
-        <v>16</v>
+      <c r="C22" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -777,8 +783,8 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="10" t="s">
-        <v>17</v>
+      <c r="C23" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -786,28 +792,28 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="10" t="s">
-        <v>18</v>
-      </c>
+    <row r="26" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -815,8 +821,8 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="10" t="s">
-        <v>19</v>
+      <c r="C27" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -825,8 +831,8 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="10" t="s">
-        <v>20</v>
+      <c r="C28" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -835,8 +841,8 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="10" t="s">
-        <v>21</v>
+      <c r="C29" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -845,8 +851,8 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="10" t="s">
-        <v>22</v>
+      <c r="C30" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -855,8 +861,8 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="10" t="s">
-        <v>23</v>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -864,24 +870,30 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -889,10 +901,18 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="10"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/60_experts/S4350_Advanced_Python_Checklist.xlsx
+++ b/60_experts/S4350_Advanced_Python_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.aspit.dk/personal/ulsc/Documents/Uli/Python/AspIT_Python/60_experts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\AspIT_Python\60_experts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{33062578-71E9-437E-A430-9C9C11F37834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7CF80F-7595-4C23-A8DA-A7C300C0C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{AA257D73-5351-48FA-A979-44EE05DA9560}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA257D73-5351-48FA-A979-44EE05DA9560}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -69,9 +80,6 @@
     <t>Import (0,5 - 1)</t>
   </si>
   <si>
-    <t>Inline If (0,3 - 1)</t>
-  </si>
-  <si>
     <t>Generators (1 - 2)</t>
   </si>
   <si>
@@ -115,6 +123,9 @@
   </si>
   <si>
     <t>Type hints, variable annotations (0,1 - 0,5)</t>
+  </si>
+  <si>
+    <t>Inline If (0,2 - 0,5)</t>
   </si>
 </sst>
 </file>
@@ -240,7 +251,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -256,9 +267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 Tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +307,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -402,7 +413,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,19 +565,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AEB3CE-BCD5-4803-BEB5-39E1764B9DB3}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -576,7 +585,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="9"/>
@@ -584,37 +593,37 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -624,7 +633,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="9"/>
@@ -632,7 +641,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -642,7 +651,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
       <c r="C9" s="9" t="s">
@@ -652,7 +661,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="9" t="s">
@@ -662,17 +671,17 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
       <c r="C12" s="9" t="s">
@@ -682,7 +691,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9" t="s">
@@ -692,7 +701,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="C14" s="9" t="s">
@@ -702,7 +711,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9" t="s">
@@ -712,7 +721,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="6"/>
       <c r="C16" s="9" t="s">
@@ -722,7 +731,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9" t="s">
@@ -732,7 +741,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="6"/>
       <c r="C18" s="9" t="s">
@@ -742,7 +751,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="9"/>
@@ -750,7 +759,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
@@ -760,47 +769,47 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
       <c r="C21" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="6"/>
       <c r="C22" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="6"/>
       <c r="C24" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="9"/>
@@ -808,7 +817,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
@@ -818,87 +827,87 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="6"/>
       <c r="C27" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="6"/>
       <c r="C28" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="6"/>
       <c r="C29" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="6"/>
       <c r="C30" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="6"/>
       <c r="C31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="6"/>
       <c r="C32" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="6"/>
       <c r="C33" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="6"/>
       <c r="C34" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="9"/>
@@ -906,7 +915,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="9"/>
